--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf16</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf16</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H2">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I2">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J2">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.02585874556844444</v>
+        <v>0.575936859092</v>
       </c>
       <c r="R2">
-        <v>0.232728710116</v>
+        <v>5.183431731827999</v>
       </c>
       <c r="S2">
-        <v>0.0007762437505522389</v>
+        <v>0.003128514592110119</v>
       </c>
       <c r="T2">
-        <v>0.0007762437505522389</v>
+        <v>0.003128514592110118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H3">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I3">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J3">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.01793872253866667</v>
+        <v>0.2166256195946666</v>
       </c>
       <c r="R3">
-        <v>0.161448502848</v>
+        <v>1.949630576352</v>
       </c>
       <c r="S3">
-        <v>0.0005384956214010289</v>
+        <v>0.001176719984540097</v>
       </c>
       <c r="T3">
-        <v>0.0005384956214010289</v>
+        <v>0.001176719984540097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H4">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I4">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J4">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>1.255807951654222</v>
+        <v>42.04401270623889</v>
       </c>
       <c r="R4">
-        <v>11.302271564888</v>
+        <v>378.39611435615</v>
       </c>
       <c r="S4">
-        <v>0.03769761652920114</v>
+        <v>0.2283849439150415</v>
       </c>
       <c r="T4">
-        <v>0.03769761652920114</v>
+        <v>0.2283849439150415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H5">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I5">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J5">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.004388011711555556</v>
+        <v>0.08197627930822221</v>
       </c>
       <c r="R5">
-        <v>0.039492105404</v>
+        <v>0.7377865137739998</v>
       </c>
       <c r="S5">
-        <v>0.0001317220380791246</v>
+        <v>0.0004452987892231785</v>
       </c>
       <c r="T5">
-        <v>0.0001317220380791246</v>
+        <v>0.0004452987892231785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H6">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I6">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J6">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N6">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q6">
-        <v>0.3122667608371111</v>
+        <v>1.894458748686</v>
       </c>
       <c r="R6">
-        <v>2.810400847533999</v>
+        <v>17.050128738174</v>
       </c>
       <c r="S6">
-        <v>0.009373815948009252</v>
+        <v>0.01029078404316553</v>
       </c>
       <c r="T6">
-        <v>0.00937381594800925</v>
+        <v>0.01029078404316553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H7">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I7">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J7">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.890544</v>
       </c>
       <c r="O7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q7">
-        <v>0.2166256195946666</v>
+        <v>0.712557798224</v>
       </c>
       <c r="R7">
-        <v>1.949630576352</v>
+        <v>6.413020184015999</v>
       </c>
       <c r="S7">
-        <v>0.006502801266008283</v>
+        <v>0.003870645599901676</v>
       </c>
       <c r="T7">
-        <v>0.006502801266008282</v>
+        <v>0.003870645599901676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H8">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I8">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J8">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N8">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q8">
-        <v>15.16496924642355</v>
+        <v>138.2975346060917</v>
       </c>
       <c r="R8">
-        <v>136.484723217812</v>
+        <v>1244.677811454825</v>
       </c>
       <c r="S8">
-        <v>0.4552313867544394</v>
+        <v>0.7512383488532689</v>
       </c>
       <c r="T8">
-        <v>0.4552313867544394</v>
+        <v>0.7512383488532689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H9">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I9">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J9">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,276 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N9">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q9">
-        <v>0.05298904388288889</v>
+        <v>0.2696487940796666</v>
       </c>
       <c r="R9">
-        <v>0.4769013949459999</v>
+        <v>2.426839146717</v>
       </c>
       <c r="S9">
-        <v>0.001590657754567373</v>
+        <v>0.001464744222748864</v>
       </c>
       <c r="T9">
-        <v>0.001590657754567372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H10">
-        <v>2.260853</v>
-      </c>
-      <c r="I10">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J10">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.4279076666666666</v>
-      </c>
-      <c r="N10">
-        <v>1.283723</v>
-      </c>
-      <c r="O10">
-        <v>0.0198304262462706</v>
-      </c>
-      <c r="P10">
-        <v>0.0198304262462706</v>
-      </c>
-      <c r="Q10">
-        <v>0.3224787773021111</v>
-      </c>
-      <c r="R10">
-        <v>2.902308995719</v>
-      </c>
-      <c r="S10">
-        <v>0.009680366547709115</v>
-      </c>
-      <c r="T10">
-        <v>0.009680366547709115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H11">
-        <v>2.260853</v>
-      </c>
-      <c r="I11">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J11">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.296848</v>
-      </c>
-      <c r="N11">
-        <v>0.890544</v>
-      </c>
-      <c r="O11">
-        <v>0.01375675835913107</v>
-      </c>
-      <c r="P11">
-        <v>0.01375675835913107</v>
-      </c>
-      <c r="Q11">
-        <v>0.2237098971146667</v>
-      </c>
-      <c r="R11">
-        <v>2.013389074032</v>
-      </c>
-      <c r="S11">
-        <v>0.006715461471721755</v>
-      </c>
-      <c r="T11">
-        <v>0.006715461471721755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H12">
-        <v>2.260853</v>
-      </c>
-      <c r="I12">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J12">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>20.78097133333333</v>
-      </c>
-      <c r="N12">
-        <v>62.342914</v>
-      </c>
-      <c r="O12">
-        <v>0.9630477587879871</v>
-      </c>
-      <c r="P12">
-        <v>0.9630477587879871</v>
-      </c>
-      <c r="Q12">
-        <v>15.66090712729356</v>
-      </c>
-      <c r="R12">
-        <v>140.948164145642</v>
-      </c>
-      <c r="S12">
-        <v>0.4701187555043466</v>
-      </c>
-      <c r="T12">
-        <v>0.4701187555043466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H13">
-        <v>2.260853</v>
-      </c>
-      <c r="I13">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J13">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.07261233333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.217837</v>
-      </c>
-      <c r="O13">
-        <v>0.003365056606611278</v>
-      </c>
-      <c r="P13">
-        <v>0.003365056606611278</v>
-      </c>
-      <c r="Q13">
-        <v>0.05472193721788889</v>
-      </c>
-      <c r="R13">
-        <v>0.492497434961</v>
-      </c>
-      <c r="S13">
-        <v>0.001642676813964781</v>
-      </c>
-      <c r="T13">
-        <v>0.001642676813964781</v>
+        <v>0.001464744222748864</v>
       </c>
     </row>
   </sheetData>
